--- a/data_craw/quarter/income_statement_quarter/vpb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/vpb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,52 +573,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>636584000000</v>
+        <v>899436000000</v>
       </c>
       <c r="C4" t="n">
-        <v>848680000000</v>
+        <v>1204317000000</v>
       </c>
       <c r="D4" t="n">
-        <v>594577000000</v>
+        <v>1318510000000</v>
       </c>
       <c r="E4" t="n">
-        <v>743621000000</v>
+        <v>1208092000000</v>
       </c>
       <c r="F4" t="n">
-        <v>899436000000</v>
+        <v>1825218000000</v>
       </c>
       <c r="G4" t="n">
-        <v>1204317000000</v>
+        <v>1116884000000</v>
       </c>
       <c r="H4" t="n">
-        <v>1318510000000</v>
+        <v>7436486000000</v>
       </c>
       <c r="I4" t="n">
-        <v>1208092000000</v>
+        <v>1891589000000</v>
       </c>
       <c r="J4" t="n">
-        <v>1825218000000</v>
+        <v>1929963000000</v>
       </c>
       <c r="K4" t="n">
-        <v>1116884000000</v>
+        <v>1759002000000</v>
       </c>
       <c r="L4" t="n">
-        <v>7436486000000</v>
+        <v>2335765000000</v>
       </c>
       <c r="M4" t="n">
-        <v>1891589000000</v>
+        <v>2765634000000</v>
       </c>
       <c r="N4" t="n">
-        <v>1929963000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1759002000000</v>
-      </c>
+        <v>1297356000000</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>2335765000000</v>
+        <v>1065880354010</v>
       </c>
       <c r="Q4" t="n">
-        <v>2765634000000</v>
+        <v>2110712433191</v>
       </c>
     </row>
     <row r="5">
@@ -628,52 +626,50 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87715000000</v>
+        <v>378581000000</v>
       </c>
       <c r="C5" t="n">
-        <v>229096000000</v>
+        <v>480127000000</v>
       </c>
       <c r="D5" t="n">
-        <v>143775000000</v>
+        <v>529851000000</v>
       </c>
       <c r="E5" t="n">
-        <v>203307000000</v>
+        <v>931724000000</v>
       </c>
       <c r="F5" t="n">
-        <v>378581000000</v>
+        <v>666550000000</v>
       </c>
       <c r="G5" t="n">
-        <v>480127000000</v>
+        <v>532791000000</v>
       </c>
       <c r="H5" t="n">
-        <v>529851000000</v>
+        <v>326203000000</v>
       </c>
       <c r="I5" t="n">
-        <v>931724000000</v>
+        <v>568034000000</v>
       </c>
       <c r="J5" t="n">
-        <v>666550000000</v>
+        <v>677855000000</v>
       </c>
       <c r="K5" t="n">
-        <v>532791000000</v>
+        <v>860980000000</v>
       </c>
       <c r="L5" t="n">
-        <v>326203000000</v>
+        <v>958408000000</v>
       </c>
       <c r="M5" t="n">
-        <v>568034000000</v>
+        <v>593787000000</v>
       </c>
       <c r="N5" t="n">
-        <v>677855000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>860980000000</v>
-      </c>
+        <v>801717000000</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>958408000000</v>
+        <v>841348529547</v>
       </c>
       <c r="Q5" t="n">
-        <v>593787000000</v>
+        <v>910868806326</v>
       </c>
     </row>
     <row r="6">
@@ -696,8 +692,12 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>1039969446039</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>850758214408</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -706,52 +706,50 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2282602000000</v>
+        <v>2251514000000</v>
       </c>
       <c r="C7" t="n">
-        <v>2514276000000</v>
+        <v>2897229000000</v>
       </c>
       <c r="D7" t="n">
-        <v>2313995000000</v>
+        <v>3201810000000</v>
       </c>
       <c r="E7" t="n">
-        <v>2951022000000</v>
+        <v>4016363000000</v>
       </c>
       <c r="F7" t="n">
-        <v>2251514000000</v>
+        <v>2160820000000</v>
       </c>
       <c r="G7" t="n">
-        <v>2897229000000</v>
+        <v>2271529000000</v>
       </c>
       <c r="H7" t="n">
-        <v>3201810000000</v>
+        <v>8916823000000</v>
       </c>
       <c r="I7" t="n">
-        <v>4016363000000</v>
+        <v>3324075000000</v>
       </c>
       <c r="J7" t="n">
-        <v>2160820000000</v>
+        <v>3542430000000</v>
       </c>
       <c r="K7" t="n">
-        <v>2271529000000</v>
+        <v>1140448000000</v>
       </c>
       <c r="L7" t="n">
-        <v>8916823000000</v>
+        <v>1649719000000</v>
       </c>
       <c r="M7" t="n">
-        <v>3324075000000</v>
+        <v>2452231000000</v>
       </c>
       <c r="N7" t="n">
-        <v>3542430000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1140448000000</v>
-      </c>
+        <v>2427678000000</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>1649719000000</v>
+        <v>3141881802649</v>
       </c>
       <c r="Q7" t="n">
-        <v>2452231000000</v>
+        <v>3632686962872</v>
       </c>
     </row>
     <row r="8">
@@ -765,30 +763,36 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>-157362000000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>245526000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-184131000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-187453000000</v>
+      </c>
       <c r="K8" t="n">
-        <v>-157362000000</v>
+        <v>-1125171000000</v>
       </c>
       <c r="L8" t="n">
-        <v>245526000000</v>
+        <v>-886235000000</v>
       </c>
       <c r="M8" t="n">
-        <v>-184131000000</v>
+        <v>-609562000000</v>
       </c>
       <c r="N8" t="n">
-        <v>-187453000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-1125171000000</v>
-      </c>
+        <v>2932000000</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-886235000000</v>
+        <v>-424814869866</v>
       </c>
       <c r="Q8" t="n">
-        <v>-609562000000</v>
+        <v>74300049348</v>
       </c>
     </row>
     <row r="9">
@@ -800,25 +804,25 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>949</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>1951</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1951</v>
+        <v>378</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="Q9" t="inlineStr"/>
     </row>
@@ -842,8 +846,12 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>13410611996916</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>16127995609366</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -888,8 +896,12 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>3566696672515</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3558386913524</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
